--- a/app/COVID19master/data/COVID_input_parameters.xlsx
+++ b/app/COVID19master/data/COVID_input_parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID19-Univ./app/COVID19master/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID-University/app/COVID19master/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8D8B8C-DCA6-E94D-8A92-D98CB0C61BFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B124F42-8173-9749-9634-92C5BF4FB60E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="500" windowWidth="27840" windowHeight="16060" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="27840" windowHeight="16060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="12" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="350">
   <si>
     <t>Parameter</t>
   </si>
@@ -1115,9 +1115,6 @@
     <t>Institute of Health Metrics and Evaluation, "COVID-19 estimate downloads," [Online]. Available: http://www.healthdata.org/covid/data-downloads. [Accessed 28 May 2020].</t>
   </si>
   <si>
-    <t>Second_attack</t>
-  </si>
-  <si>
     <t>Estimated, see methodology</t>
   </si>
   <si>
@@ -1416,9 +1413,6 @@
   </si>
   <si>
     <t>The proportion of deaths within the age group is calculated by 1- porpotion of recovery within the age group</t>
-  </si>
-  <si>
-    <t>Trans_prob</t>
   </si>
 </sst>
 </file>
@@ -1934,6 +1928,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1943,7 +1938,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2357,7 +2351,7 @@
         <v>259</v>
       </c>
       <c r="F13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32">
@@ -2371,12 +2365,12 @@
         <v>260</v>
       </c>
       <c r="F14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D15" t="s">
         <v>256</v>
@@ -2385,12 +2379,12 @@
         <v>259</v>
       </c>
       <c r="F15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D16" t="s">
         <v>257</v>
@@ -2399,7 +2393,7 @@
         <v>259</v>
       </c>
       <c r="F16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2447,13 +2441,13 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17">
       <c r="A1" s="64" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D1" s="65" t="s">
         <v>91</v>
@@ -2465,10 +2459,10 @@
         <v>255</v>
       </c>
       <c r="G1" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="H1" s="64" t="s">
         <v>306</v>
-      </c>
-      <c r="H1" s="64" t="s">
-        <v>307</v>
       </c>
       <c r="I1" s="64" t="s">
         <v>20</v>
@@ -2482,7 +2476,7 @@
         <v>127</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G2" s="64">
         <v>0</v>
@@ -2491,7 +2485,7 @@
         <v>6.5</v>
       </c>
       <c r="I2" s="65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J2" s="64" t="s">
         <v>39</v>
@@ -2502,7 +2496,7 @@
         <v>118</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2510,7 +2504,7 @@
         <v>135</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G4" s="71">
         <v>0.01</v>
@@ -2530,7 +2524,7 @@
         <v>0.8</v>
       </c>
       <c r="J5" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2541,7 +2535,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2549,7 +2543,7 @@
         <v>134</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G7" s="72">
         <v>2</v>
@@ -2558,7 +2552,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="64" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34">
@@ -2566,7 +2560,7 @@
         <v>128</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G8" s="73">
         <v>3.5</v>
@@ -2575,7 +2569,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J8" s="64" t="s">
         <v>40</v>
@@ -2586,7 +2580,7 @@
         <v>130</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G9" s="72">
         <v>0</v>
@@ -2595,7 +2589,7 @@
         <v>14</v>
       </c>
       <c r="I9" s="65" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J9" s="64" t="s">
         <v>122</v>
@@ -2606,7 +2600,7 @@
         <v>129</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G10" s="73">
         <v>1.6</v>
@@ -2615,7 +2609,7 @@
         <v>7</v>
       </c>
       <c r="I10" s="65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="68">
@@ -2623,7 +2617,7 @@
         <v>132</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D11" s="64">
         <v>0</v>
@@ -2635,7 +2629,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I11" s="65" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J11" s="64" t="s">
         <v>165</v>
@@ -2652,7 +2646,7 @@
         <v>14.4</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2725,10 +2719,10 @@
       <c r="G18" s="67"/>
       <c r="H18" s="67"/>
       <c r="I18" s="66" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J18" s="85" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2840,7 +2834,7 @@
         <v>131</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C27" s="66" t="s">
         <v>95</v>
@@ -2857,7 +2851,7 @@
       <c r="G27" s="66"/>
       <c r="H27" s="66"/>
       <c r="I27" s="91" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J27" s="66" t="s">
         <v>167</v>
@@ -2875,7 +2869,7 @@
       </c>
       <c r="H28" s="68"/>
       <c r="I28" s="65" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3100,7 +3094,7 @@
     </row>
     <row r="47" spans="3:10" ht="17">
       <c r="C47" s="64" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D47" s="66">
         <v>0</v>
@@ -3114,10 +3108,10 @@
       <c r="G47" s="66"/>
       <c r="H47" s="66"/>
       <c r="I47" s="91" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J47" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="3:10">
@@ -3210,10 +3204,10 @@
     </row>
     <row r="56" spans="1:10" ht="51">
       <c r="A56" s="64" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C56" s="66" t="s">
         <v>95</v>
@@ -3230,7 +3224,7 @@
       <c r="G56" s="66"/>
       <c r="H56" s="66"/>
       <c r="I56" s="91" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J56" s="66" t="s">
         <v>167</v>
@@ -3247,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="64" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3453,7 +3447,7 @@
     </row>
     <row r="76" spans="3:10" ht="17">
       <c r="C76" s="66" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D76" s="66">
         <v>0</v>
@@ -3467,10 +3461,10 @@
       <c r="G76" s="66"/>
       <c r="H76" s="66"/>
       <c r="I76" s="91" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J76" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" spans="3:10">
@@ -3566,10 +3560,10 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="64" t="s">
+        <v>333</v>
+      </c>
+      <c r="B85" s="64" t="s">
         <v>334</v>
-      </c>
-      <c r="B85" s="64" t="s">
-        <v>335</v>
       </c>
       <c r="G85" s="64">
         <v>4.4000000000000003E-3</v>
@@ -3578,7 +3572,7 @@
         <v>2.18E-2</v>
       </c>
       <c r="J85" s="64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3589,7 +3583,7 @@
         <v>3.1600000000000003E-2</v>
       </c>
       <c r="J86" s="64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3600,15 +3594,15 @@
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="J87" s="64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="B88" s="64" t="s">
         <v>337</v>
-      </c>
-      <c r="B88" s="64" t="s">
-        <v>338</v>
       </c>
       <c r="G88" s="81">
         <v>0.27</v>
@@ -3617,7 +3611,7 @@
         <v>0.44</v>
       </c>
       <c r="J88" s="64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3628,7 +3622,7 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="J89" s="64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3639,7 +3633,7 @@
         <v>0.17</v>
       </c>
       <c r="J90" s="64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3650,7 +3644,7 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="J91" s="64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3661,7 +3655,7 @@
         <v>0.106</v>
       </c>
       <c r="J92" s="64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="127" spans="7:12" ht="22">
@@ -4329,10 +4323,10 @@
         <v>116</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E31" s="20">
         <v>0</v>
@@ -4351,19 +4345,19 @@
         <v>117</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E33" s="20">
         <v>0</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I33" s="60" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P33" s="23"/>
     </row>
@@ -4384,7 +4378,7 @@
         <v>127</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>106</v>
@@ -4420,7 +4414,7 @@
     </row>
     <row r="39" spans="1:16" ht="20" customHeight="1">
       <c r="B39" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>140</v>
@@ -4460,7 +4454,7 @@
         <v>134</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>141</v>
@@ -4475,7 +4469,7 @@
         <v>9</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I42" s="17" t="s">
         <v>13</v>
@@ -4555,7 +4549,7 @@
         <v>0.4</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I48" s="17" t="s">
         <v>13</v>
@@ -5101,7 +5095,7 @@
     </row>
     <row r="84" spans="1:16" ht="20" customHeight="1">
       <c r="B84" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P84" s="23"/>
     </row>
@@ -5110,19 +5104,19 @@
         <v>118</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C85" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E85" s="17">
         <v>0.2</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P85" s="23"/>
     </row>
@@ -5143,7 +5137,7 @@
         <v>129</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>9</v>
@@ -5164,7 +5158,7 @@
     </row>
     <row r="89" spans="1:16" ht="20" customHeight="1">
       <c r="B89" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P89" s="23"/>
     </row>
@@ -5198,7 +5192,7 @@
         <v>132</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P92" s="23"/>
     </row>
@@ -5208,7 +5202,7 @@
       </c>
       <c r="B93" s="22"/>
       <c r="H93" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I93" s="17" t="s">
         <v>165</v>
@@ -5526,27 +5520,27 @@
         <v>265</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C104" s="17" t="s">
         <v>12</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I104" s="17" t="s">
         <v>167</v>
       </c>
       <c r="K104" s="16"/>
-      <c r="L104" s="92" t="s">
+      <c r="L104" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="M104" s="92"/>
+      <c r="M104" s="93"/>
       <c r="N104" s="16"/>
-      <c r="O104" s="92" t="s">
+      <c r="O104" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="P104" s="93"/>
+      <c r="P104" s="94"/>
     </row>
     <row r="105" spans="1:16" ht="42" customHeight="1">
       <c r="A105" s="36" t="s">
@@ -5949,13 +5943,13 @@
         <v>131</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C118" s="17" t="s">
         <v>14</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I118" s="17" t="s">
         <v>167</v>
@@ -5977,10 +5971,10 @@
         <f>L120</f>
         <v>Male</v>
       </c>
-      <c r="L119" s="92" t="s">
+      <c r="L119" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="M119" s="92"/>
+      <c r="M119" s="93"/>
       <c r="P119" s="23"/>
     </row>
     <row r="120" spans="1:16" ht="20" customHeight="1">
@@ -6293,7 +6287,7 @@
         <v>Female</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I131" s="17" t="s">
         <v>167</v>
@@ -6450,13 +6444,13 @@
         <v>136</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C143" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I143" s="17" t="s">
         <v>167</v>
@@ -6634,7 +6628,7 @@
         <v>264</v>
       </c>
       <c r="B157" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C157" s="17" t="s">
         <v>16</v>
@@ -6643,7 +6637,7 @@
         <v>105</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I157" s="17" t="s">
         <v>167</v>
@@ -6672,18 +6666,18 @@
         <v>267</v>
       </c>
       <c r="B161" s="44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C161" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="D161" s="94" t="s">
+      <c r="D161" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="E161" s="94"/>
-      <c r="F161" s="94"/>
-      <c r="G161" s="94"/>
-      <c r="H161" s="94"/>
+      <c r="E161" s="95"/>
+      <c r="F161" s="95"/>
+      <c r="G161" s="95"/>
+      <c r="H161" s="95"/>
       <c r="I161" s="30" t="s">
         <v>271</v>
       </c>
@@ -7078,8 +7072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC06EAA-DD57-CD41-99C7-E054165F9535}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView zoomScale="178" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+      <selection activeCell="B17" sqref="A16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -7208,20 +7202,12 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="B16" s="17">
-        <v>11.2</v>
-      </c>
+      <c r="A16" s="48"/>
+      <c r="B16" s="17"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="48" t="s">
-        <v>351</v>
-      </c>
-      <c r="B17" s="17">
-        <v>2.4899999999999999E-2</v>
-      </c>
+      <c r="A17" s="48"/>
+      <c r="B17" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7233,7 +7219,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -7254,10 +7240,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="95">
-        <v>0</v>
-      </c>
-      <c r="B2" s="95">
+      <c r="A2" s="92">
+        <v>0</v>
+      </c>
+      <c r="B2" s="92">
         <v>9</v>
       </c>
       <c r="C2">
@@ -7268,10 +7254,10 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="95">
+      <c r="A3" s="92">
         <v>10</v>
       </c>
-      <c r="B3" s="95">
+      <c r="B3" s="92">
         <v>19</v>
       </c>
       <c r="C3">
@@ -7281,10 +7267,10 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="95">
+      <c r="A4" s="92">
         <v>20</v>
       </c>
-      <c r="B4" s="95">
+      <c r="B4" s="92">
         <v>29</v>
       </c>
       <c r="C4">
@@ -7294,10 +7280,10 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="95">
+      <c r="A5" s="92">
         <v>30</v>
       </c>
-      <c r="B5" s="95">
+      <c r="B5" s="92">
         <v>44</v>
       </c>
       <c r="C5">
@@ -7307,10 +7293,10 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="95">
+      <c r="A6" s="92">
         <v>45</v>
       </c>
-      <c r="B6" s="95">
+      <c r="B6" s="92">
         <v>54</v>
       </c>
       <c r="C6">
@@ -7320,10 +7306,10 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="95">
+      <c r="A7" s="92">
         <v>55</v>
       </c>
-      <c r="B7" s="95">
+      <c r="B7" s="92">
         <v>64</v>
       </c>
       <c r="C7">
@@ -7333,10 +7319,10 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="95">
+      <c r="A8" s="92">
         <v>65</v>
       </c>
-      <c r="B8" s="95">
+      <c r="B8" s="92">
         <v>74</v>
       </c>
       <c r="C8">
@@ -7344,10 +7330,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="95">
+      <c r="A9" s="92">
         <v>75</v>
       </c>
-      <c r="B9" s="95">
+      <c r="B9" s="92">
         <v>84</v>
       </c>
       <c r="C9">
@@ -7355,10 +7341,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="95">
+      <c r="A10" s="92">
         <v>85</v>
       </c>
-      <c r="B10" s="95">
+      <c r="B10" s="92">
         <v>100</v>
       </c>
       <c r="C10">
@@ -7374,7 +7360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE539784-BE45-0345-97F0-C9ABCF921BE4}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -8208,7 +8194,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B54" s="15">
         <v>43990</v>
@@ -8405,74 +8391,74 @@
     </row>
     <row r="22" spans="1:2" ht="16">
       <c r="A22" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16">
       <c r="A23" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23" s="61" t="s">
         <v>301</v>
-      </c>
-      <c r="B23" s="61" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16">
       <c r="A24" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B24" s="63" t="s">
         <v>312</v>
-      </c>
-      <c r="B24" s="63" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16">
       <c r="A25" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" s="63" t="s">
         <v>314</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16">
       <c r="A26" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26" s="63" t="s">
         <v>317</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="76" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" t="s">
         <v>327</v>
-      </c>
-      <c r="B27" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16">
       <c r="A28" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B28" s="63" t="s">
         <v>339</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16">
       <c r="A29" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B29" s="63" t="s">
         <v>341</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16">
       <c r="A30" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="B30" s="63" t="s">
         <v>343</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/app/COVID19master/data/COVID_input_parameters.xlsx
+++ b/app/COVID19master/data/COVID_input_parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID-University/app/COVID19master/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID19-Univ./app/COVID19master/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B124F42-8173-9749-9634-92C5BF4FB60E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8D8B8C-DCA6-E94D-8A92-D98CB0C61BFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="27840" windowHeight="16060" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="27840" windowHeight="16060" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="12" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="352">
   <si>
     <t>Parameter</t>
   </si>
@@ -1115,6 +1115,9 @@
     <t>Institute of Health Metrics and Evaluation, "COVID-19 estimate downloads," [Online]. Available: http://www.healthdata.org/covid/data-downloads. [Accessed 28 May 2020].</t>
   </si>
   <si>
+    <t>Second_attack</t>
+  </si>
+  <si>
     <t>Estimated, see methodology</t>
   </si>
   <si>
@@ -1413,6 +1416,9 @@
   </si>
   <si>
     <t>The proportion of deaths within the age group is calculated by 1- porpotion of recovery within the age group</t>
+  </si>
+  <si>
+    <t>Trans_prob</t>
   </si>
 </sst>
 </file>
@@ -1928,7 +1934,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1938,6 +1943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2351,7 +2357,7 @@
         <v>259</v>
       </c>
       <c r="F13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32">
@@ -2365,12 +2371,12 @@
         <v>260</v>
       </c>
       <c r="F14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D15" t="s">
         <v>256</v>
@@ -2379,12 +2385,12 @@
         <v>259</v>
       </c>
       <c r="F15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D16" t="s">
         <v>257</v>
@@ -2393,7 +2399,7 @@
         <v>259</v>
       </c>
       <c r="F16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2441,13 +2447,13 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17">
       <c r="A1" s="64" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="64" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D1" s="65" t="s">
         <v>91</v>
@@ -2459,10 +2465,10 @@
         <v>255</v>
       </c>
       <c r="G1" s="64" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H1" s="64" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I1" s="64" t="s">
         <v>20</v>
@@ -2476,7 +2482,7 @@
         <v>127</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G2" s="64">
         <v>0</v>
@@ -2485,7 +2491,7 @@
         <v>6.5</v>
       </c>
       <c r="I2" s="65" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J2" s="64" t="s">
         <v>39</v>
@@ -2496,7 +2502,7 @@
         <v>118</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2504,7 +2510,7 @@
         <v>135</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G4" s="71">
         <v>0.01</v>
@@ -2524,7 +2530,7 @@
         <v>0.8</v>
       </c>
       <c r="J5" s="64" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2535,7 +2541,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="64" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2543,7 +2549,7 @@
         <v>134</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G7" s="72">
         <v>2</v>
@@ -2552,7 +2558,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="64" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34">
@@ -2560,7 +2566,7 @@
         <v>128</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G8" s="73">
         <v>3.5</v>
@@ -2569,7 +2575,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="65" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J8" s="64" t="s">
         <v>40</v>
@@ -2580,7 +2586,7 @@
         <v>130</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G9" s="72">
         <v>0</v>
@@ -2589,7 +2595,7 @@
         <v>14</v>
       </c>
       <c r="I9" s="65" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J9" s="64" t="s">
         <v>122</v>
@@ -2600,7 +2606,7 @@
         <v>129</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G10" s="73">
         <v>1.6</v>
@@ -2609,7 +2615,7 @@
         <v>7</v>
       </c>
       <c r="I10" s="65" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="68">
@@ -2617,7 +2623,7 @@
         <v>132</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D11" s="64">
         <v>0</v>
@@ -2629,7 +2635,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I11" s="65" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J11" s="64" t="s">
         <v>165</v>
@@ -2646,7 +2652,7 @@
         <v>14.4</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2719,10 +2725,10 @@
       <c r="G18" s="67"/>
       <c r="H18" s="67"/>
       <c r="I18" s="66" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J18" s="85" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2834,7 +2840,7 @@
         <v>131</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C27" s="66" t="s">
         <v>95</v>
@@ -2851,7 +2857,7 @@
       <c r="G27" s="66"/>
       <c r="H27" s="66"/>
       <c r="I27" s="91" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J27" s="66" t="s">
         <v>167</v>
@@ -2869,7 +2875,7 @@
       </c>
       <c r="H28" s="68"/>
       <c r="I28" s="65" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3094,7 +3100,7 @@
     </row>
     <row r="47" spans="3:10" ht="17">
       <c r="C47" s="64" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D47" s="66">
         <v>0</v>
@@ -3108,10 +3114,10 @@
       <c r="G47" s="66"/>
       <c r="H47" s="66"/>
       <c r="I47" s="91" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J47" s="66" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="3:10">
@@ -3204,10 +3210,10 @@
     </row>
     <row r="56" spans="1:10" ht="51">
       <c r="A56" s="64" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B56" s="64" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C56" s="66" t="s">
         <v>95</v>
@@ -3224,7 +3230,7 @@
       <c r="G56" s="66"/>
       <c r="H56" s="66"/>
       <c r="I56" s="91" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J56" s="66" t="s">
         <v>167</v>
@@ -3241,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="64" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3447,7 +3453,7 @@
     </row>
     <row r="76" spans="3:10" ht="17">
       <c r="C76" s="66" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D76" s="66">
         <v>0</v>
@@ -3461,10 +3467,10 @@
       <c r="G76" s="66"/>
       <c r="H76" s="66"/>
       <c r="I76" s="91" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J76" s="66" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" spans="3:10">
@@ -3560,10 +3566,10 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="64" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B85" s="64" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G85" s="64">
         <v>4.4000000000000003E-3</v>
@@ -3572,7 +3578,7 @@
         <v>2.18E-2</v>
       </c>
       <c r="J85" s="64" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3583,7 +3589,7 @@
         <v>3.1600000000000003E-2</v>
       </c>
       <c r="J86" s="64" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3594,15 +3600,15 @@
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="J87" s="64" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="64" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B88" s="64" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G88" s="81">
         <v>0.27</v>
@@ -3611,7 +3617,7 @@
         <v>0.44</v>
       </c>
       <c r="J88" s="64" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3622,7 +3628,7 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="J89" s="64" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3633,7 +3639,7 @@
         <v>0.17</v>
       </c>
       <c r="J90" s="64" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3644,7 +3650,7 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="J91" s="64" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3655,7 +3661,7 @@
         <v>0.106</v>
       </c>
       <c r="J92" s="64" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="127" spans="7:12" ht="22">
@@ -4323,10 +4329,10 @@
         <v>116</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E31" s="20">
         <v>0</v>
@@ -4345,19 +4351,19 @@
         <v>117</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E33" s="20">
         <v>0</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I33" s="60" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P33" s="23"/>
     </row>
@@ -4378,7 +4384,7 @@
         <v>127</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>106</v>
@@ -4414,7 +4420,7 @@
     </row>
     <row r="39" spans="1:16" ht="20" customHeight="1">
       <c r="B39" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>140</v>
@@ -4454,7 +4460,7 @@
         <v>134</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>141</v>
@@ -4469,7 +4475,7 @@
         <v>9</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I42" s="17" t="s">
         <v>13</v>
@@ -4549,7 +4555,7 @@
         <v>0.4</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I48" s="17" t="s">
         <v>13</v>
@@ -5095,7 +5101,7 @@
     </row>
     <row r="84" spans="1:16" ht="20" customHeight="1">
       <c r="B84" s="24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P84" s="23"/>
     </row>
@@ -5104,19 +5110,19 @@
         <v>118</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C85" s="36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E85" s="17">
         <v>0.2</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P85" s="23"/>
     </row>
@@ -5137,7 +5143,7 @@
         <v>129</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>9</v>
@@ -5158,7 +5164,7 @@
     </row>
     <row r="89" spans="1:16" ht="20" customHeight="1">
       <c r="B89" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P89" s="23"/>
     </row>
@@ -5192,7 +5198,7 @@
         <v>132</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P92" s="23"/>
     </row>
@@ -5202,7 +5208,7 @@
       </c>
       <c r="B93" s="22"/>
       <c r="H93" s="17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I93" s="17" t="s">
         <v>165</v>
@@ -5520,27 +5526,27 @@
         <v>265</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C104" s="17" t="s">
         <v>12</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I104" s="17" t="s">
         <v>167</v>
       </c>
       <c r="K104" s="16"/>
-      <c r="L104" s="93" t="s">
+      <c r="L104" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="M104" s="93"/>
+      <c r="M104" s="92"/>
       <c r="N104" s="16"/>
-      <c r="O104" s="93" t="s">
+      <c r="O104" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="P104" s="94"/>
+      <c r="P104" s="93"/>
     </row>
     <row r="105" spans="1:16" ht="42" customHeight="1">
       <c r="A105" s="36" t="s">
@@ -5943,13 +5949,13 @@
         <v>131</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C118" s="17" t="s">
         <v>14</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I118" s="17" t="s">
         <v>167</v>
@@ -5971,10 +5977,10 @@
         <f>L120</f>
         <v>Male</v>
       </c>
-      <c r="L119" s="93" t="s">
+      <c r="L119" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="M119" s="93"/>
+      <c r="M119" s="92"/>
       <c r="P119" s="23"/>
     </row>
     <row r="120" spans="1:16" ht="20" customHeight="1">
@@ -6287,7 +6293,7 @@
         <v>Female</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I131" s="17" t="s">
         <v>167</v>
@@ -6444,13 +6450,13 @@
         <v>136</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C143" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I143" s="17" t="s">
         <v>167</v>
@@ -6628,7 +6634,7 @@
         <v>264</v>
       </c>
       <c r="B157" s="22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C157" s="17" t="s">
         <v>16</v>
@@ -6637,7 +6643,7 @@
         <v>105</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I157" s="17" t="s">
         <v>167</v>
@@ -6666,18 +6672,18 @@
         <v>267</v>
       </c>
       <c r="B161" s="44" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C161" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="D161" s="95" t="s">
+      <c r="D161" s="94" t="s">
         <v>270</v>
       </c>
-      <c r="E161" s="95"/>
-      <c r="F161" s="95"/>
-      <c r="G161" s="95"/>
-      <c r="H161" s="95"/>
+      <c r="E161" s="94"/>
+      <c r="F161" s="94"/>
+      <c r="G161" s="94"/>
+      <c r="H161" s="94"/>
       <c r="I161" s="30" t="s">
         <v>271</v>
       </c>
@@ -7072,8 +7078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC06EAA-DD57-CD41-99C7-E054165F9535}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="B17" sqref="A16:B17"/>
+    <sheetView zoomScale="178" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -7202,12 +7208,20 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="48"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="17">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="48"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" s="17">
+        <v>2.4899999999999999E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7219,7 +7233,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -7240,10 +7254,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="92">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92">
+      <c r="A2" s="95">
+        <v>0</v>
+      </c>
+      <c r="B2" s="95">
         <v>9</v>
       </c>
       <c r="C2">
@@ -7254,10 +7268,10 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="92">
+      <c r="A3" s="95">
         <v>10</v>
       </c>
-      <c r="B3" s="92">
+      <c r="B3" s="95">
         <v>19</v>
       </c>
       <c r="C3">
@@ -7267,10 +7281,10 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="92">
+      <c r="A4" s="95">
         <v>20</v>
       </c>
-      <c r="B4" s="92">
+      <c r="B4" s="95">
         <v>29</v>
       </c>
       <c r="C4">
@@ -7280,10 +7294,10 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="92">
+      <c r="A5" s="95">
         <v>30</v>
       </c>
-      <c r="B5" s="92">
+      <c r="B5" s="95">
         <v>44</v>
       </c>
       <c r="C5">
@@ -7293,10 +7307,10 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="92">
+      <c r="A6" s="95">
         <v>45</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="95">
         <v>54</v>
       </c>
       <c r="C6">
@@ -7306,10 +7320,10 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="92">
+      <c r="A7" s="95">
         <v>55</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="95">
         <v>64</v>
       </c>
       <c r="C7">
@@ -7319,10 +7333,10 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="92">
+      <c r="A8" s="95">
         <v>65</v>
       </c>
-      <c r="B8" s="92">
+      <c r="B8" s="95">
         <v>74</v>
       </c>
       <c r="C8">
@@ -7330,10 +7344,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="92">
+      <c r="A9" s="95">
         <v>75</v>
       </c>
-      <c r="B9" s="92">
+      <c r="B9" s="95">
         <v>84</v>
       </c>
       <c r="C9">
@@ -7341,10 +7355,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="92">
+      <c r="A10" s="95">
         <v>85</v>
       </c>
-      <c r="B10" s="92">
+      <c r="B10" s="95">
         <v>100</v>
       </c>
       <c r="C10">
@@ -7360,7 +7374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE539784-BE45-0345-97F0-C9ABCF921BE4}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -8194,7 +8208,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B54" s="15">
         <v>43990</v>
@@ -8391,74 +8405,74 @@
     </row>
     <row r="22" spans="1:2" ht="16">
       <c r="A22" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" s="59" t="s">
         <v>276</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16">
       <c r="A23" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16">
       <c r="A24" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B24" s="63" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16">
       <c r="A25" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16">
       <c r="A26" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="76" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B27" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16">
       <c r="A28" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16">
       <c r="A29" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16">
       <c r="A30" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
